--- a/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
+++ b/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Kamal\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\class notes\day7 vlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95750BB-5791-475F-AA6E-5F4D55B0CB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3479B72-4344-4B00-914E-53C26D5D68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="249">
   <si>
     <t>VLOOKUP</t>
   </si>
@@ -956,6 +965,9 @@
   </si>
   <si>
     <t>Mixed Ref</t>
+  </si>
+  <si>
+    <t>jan</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2728,7 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:colOff>403860</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -2724,7 +2736,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2764,7 +2776,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2792,15 +2804,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>546100</xdr:colOff>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2840,7 +2852,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2868,15 +2880,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>129540</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2916,7 +2928,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -2949,7 +2961,7 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
+          <xdr:colOff>403860</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -2957,7 +2969,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2997,7 +3009,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3025,15 +3037,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>546100</xdr:colOff>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3073,7 +3085,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -3101,15 +3113,15 @@
       <xdr:twoCellAnchor editAs="absolute">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>127000</xdr:colOff>
+          <xdr:colOff>129540</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
+          <xdr:colOff>335280</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>196850</xdr:rowOff>
+          <xdr:rowOff>198120</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3149,7 +3161,7 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="36576" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4024,21 +4036,21 @@
   </sheetPr>
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H121" sqref="H121:I121"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,7 +4064,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
         <v>1</v>
@@ -4063,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -4083,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="97" t="s">
         <v>9</v>
       </c>
@@ -4123,7 +4135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C8" s="103" t="s">
         <v>11</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J10">
         <v>6</v>
       </c>
@@ -4156,18 +4168,18 @@
         <v>12</v>
       </c>
       <c r="G11" s="111" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="H11">
         <f>MATCH(G11,C6:C8,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f>VLOOKUP(G11,C6:H8,G12,0)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
       <c r="D12" s="112"/>
       <c r="E12" s="113"/>
@@ -4178,19 +4190,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="115">
         <f>VLOOKUP(G11,C6:H8,G12,0)</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <f>INDEX(C6:H8,MATCH(G11,C6:C8,0),G12)</f>
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4203,7 +4215,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
@@ -4226,7 +4238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
@@ -4264,7 +4276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>25</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
         <v>27</v>
       </c>
@@ -4370,7 +4382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48">
         <v>1</v>
       </c>
@@ -4381,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="123"/>
       <c r="D49" s="124" t="s">
         <v>9</v>
@@ -4421,7 +4433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C52" s="116" t="s">
         <v>160</v>
       </c>
@@ -4449,7 +4461,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="118" t="s">
         <v>162</v>
       </c>
@@ -4467,7 +4479,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="76" t="s">
         <v>166</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -4516,7 +4528,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
       <c r="E59" s="8" t="s">
         <v>14</v>
@@ -4533,7 +4545,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F60" s="13" t="s">
         <v>233</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>41</v>
       </c>
@@ -4599,8 +4611,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E73" s="61"/>
       <c r="F73" s="164" t="s">
         <v>210</v>
@@ -4619,7 +4631,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="2:17" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E74" s="64"/>
       <c r="G74" s="81" t="s">
         <v>53</v>
@@ -4651,7 +4663,7 @@
       </c>
       <c r="Q74" s="223"/>
     </row>
-    <row r="75" spans="2:17" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E75" s="64"/>
       <c r="F75" s="18" t="s">
         <v>57</v>
@@ -4686,7 +4698,7 @@
       </c>
       <c r="Q75" s="223"/>
     </row>
-    <row r="76" spans="2:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E76" s="64"/>
       <c r="F76" s="20" t="s">
         <v>58</v>
@@ -4791,7 +4803,7 @@
       </c>
       <c r="Q78" s="223"/>
     </row>
-    <row r="79" spans="2:17" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E79" s="64"/>
       <c r="F79" s="22" t="s">
         <v>60</v>
@@ -4826,7 +4838,7 @@
       </c>
       <c r="Q79" s="223"/>
     </row>
-    <row r="80" spans="2:17" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E80" s="66"/>
       <c r="F80" s="67"/>
       <c r="G80" s="67"/>
@@ -4879,7 +4891,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="11" t="s">
         <v>62</v>
       </c>
@@ -5002,14 +5014,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G112" s="80" t="s">
         <v>85</v>
       </c>
       <c r="H112" s="80"/>
       <c r="I112" s="80"/>
     </row>
-    <row r="113" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C113" s="88" t="s">
         <v>86</v>
       </c>
@@ -5025,7 +5037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C114" s="25" t="s">
         <v>87</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C115" s="27" t="s">
         <v>88</v>
       </c>
@@ -5071,7 +5083,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C116" s="30" t="s">
         <v>89</v>
       </c>
@@ -5094,7 +5106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C119" s="24" t="s">
         <v>90</v>
@@ -5448,7 +5460,7 @@
                 <anchor>
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:colOff>403860</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -5456,7 +5468,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5470,15 +5482,15 @@
                 <anchor>
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>336550</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>546100</xdr:colOff>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5492,15 +5504,15 @@
                 <anchor>
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>129540</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>336550</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5520,21 +5532,21 @@
   </sheetPr>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5548,7 +5560,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -5661,7 +5673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="8" t="s">
         <v>14</v>
@@ -5680,7 +5692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>16</v>
       </c>
@@ -5703,7 +5715,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
         <v>19</v>
       </c>
@@ -5741,7 +5753,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
@@ -5759,7 +5771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
@@ -5832,13 +5844,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C47" s="195"/>
       <c r="D47" s="184" t="s">
         <v>9</v>
@@ -5920,7 +5932,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C52" s="183" t="s">
         <v>162</v>
       </c>
@@ -5934,7 +5946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -5982,7 +5994,7 @@
       </c>
       <c r="G57" s="9"/>
     </row>
-    <row r="58" spans="2:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E58" s="10" t="s">
         <v>180</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
         <v>41</v>
       </c>
@@ -6046,7 +6058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="2:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>141</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="2:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E71" s="61"/>
       <c r="F71" s="62"/>
       <c r="G71" s="62"/>
@@ -6117,7 +6129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="72" spans="2:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:19" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E72" s="64"/>
       <c r="G72" s="203" t="s">
         <v>53</v>
@@ -6160,7 +6172,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E73" s="64"/>
       <c r="F73" s="34" t="s">
         <v>57</v>
@@ -6344,7 +6356,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="2:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E77" s="64"/>
       <c r="F77" s="36" t="s">
         <v>60</v>
@@ -6390,7 +6402,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="2:19" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:19" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="66"/>
       <c r="F78" s="67"/>
       <c r="G78" s="67"/>
@@ -6428,12 +6440,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="80" spans="2:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>62</v>
       </c>
@@ -6563,7 +6575,7 @@
       <c r="F110" s="54"/>
       <c r="G110" s="54"/>
     </row>
-    <row r="111" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E111" s="37" t="s">
         <v>87</v>
       </c>
@@ -6592,7 +6604,7 @@
       <c r="F114" s="53"/>
       <c r="G114" s="53"/>
     </row>
-    <row r="115" spans="3:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E115" s="39">
         <v>1</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="3:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D116" s="39" t="s">
         <v>87</v>
       </c>
@@ -6617,7 +6629,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="117" spans="3:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D117" s="39" t="s">
         <v>88</v>
       </c>
@@ -6631,7 +6643,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="118" spans="3:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D118" s="39" t="s">
         <v>89</v>
       </c>
@@ -6978,7 +6990,7 @@
                 <anchor>
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:colOff>403860</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -6986,7 +6998,7 @@
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>266700</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7000,15 +7012,15 @@
                 <anchor>
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>336550</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>546100</xdr:colOff>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7022,15 +7034,15 @@
                 <anchor>
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>127000</xdr:colOff>
+                    <xdr:colOff>129540</xdr:colOff>
                     <xdr:row>0</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>336550</xdr:colOff>
+                    <xdr:colOff>335280</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>196850</xdr:rowOff>
+                    <xdr:rowOff>198120</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7052,13 +7064,13 @@
       <selection activeCell="C9" sqref="C9:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="198" t="s">
         <v>142</v>
       </c>
@@ -7093,7 +7105,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="198" t="s">
         <v>143</v>
       </c>
@@ -7140,7 +7152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="198" t="s">
         <v>144</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="198" t="s">
         <v>188</v>
       </c>
@@ -7232,7 +7244,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="198" t="s">
         <v>145</v>
       </c>
@@ -7302,7 +7314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9" s="131" t="s">
         <v>142</v>
@@ -7846,7 +7858,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="19" spans="3:18" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="136">
         <v>1007</v>
       </c>
@@ -7914,16 +7926,16 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="169" t="s">
         <v>211</v>
       </c>
@@ -7958,7 +7970,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
         <v>143</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
         <v>144</v>
       </c>
@@ -8028,7 +8040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
         <v>188</v>
       </c>
@@ -8073,7 +8085,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="175" t="s">
         <v>145</v>
       </c>
@@ -8136,7 +8148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="166" t="s">
         <v>211</v>
       </c>
@@ -8186,7 +8198,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="167">
         <v>1005</v>
       </c>
@@ -8250,7 +8262,7 @@
         <v>Name9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="167">
         <v>1003</v>
       </c>
@@ -8314,7 +8326,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="167">
         <v>1010</v>
       </c>
@@ -8378,7 +8390,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="167">
         <v>1004</v>
       </c>
@@ -8442,7 +8454,7 @@
         <v>Disctinction</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="167">
         <v>1007</v>
       </c>
@@ -8463,7 +8475,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="167">
         <v>1006</v>
       </c>
@@ -8517,7 +8529,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="167">
         <v>1001</v>
       </c>
@@ -8581,7 +8593,7 @@
         <v>Name9</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="167">
         <v>1002</v>
       </c>
@@ -8645,7 +8657,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="167">
         <v>1008</v>
       </c>
@@ -8709,7 +8721,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="167">
         <v>1009</v>
       </c>
@@ -8791,7 +8803,7 @@
       <selection activeCell="O9" sqref="O9:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
@@ -8816,7 +8828,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="154">
         <v>1001</v>
       </c>
@@ -8830,7 +8842,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="154">
         <v>1002</v>
       </c>
@@ -9879,16 +9891,16 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="137" t="s">
         <v>142</v>
       </c>
@@ -10261,7 +10273,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>1010Ram10</v>
@@ -10324,7 +10336,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="178" t="s">
         <v>142</v>
       </c>
@@ -10359,7 +10371,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>MATCH($C15,$A$1:$H$1,0)</f>
         <v>3</v>
@@ -10408,7 +10420,7 @@
         <v>Ram10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ref="A16:A20" si="7">MATCH($C16,$A$1:$H$1,0)</f>
         <v>4</v>
@@ -10457,7 +10469,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -10506,7 +10518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -10555,7 +10567,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -10604,7 +10616,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -10666,14 +10678,14 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="202" t="s">
         <v>211</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
         <v>232</v>
       </c>
@@ -10743,7 +10755,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="202" t="s">
         <v>234</v>
       </c>
@@ -10778,7 +10790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="202" t="s">
         <v>188</v>
       </c>
@@ -10823,7 +10835,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="202" t="s">
         <v>145</v>
       </c>

--- a/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
+++ b/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\class notes\day7 vlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3479B72-4344-4B00-914E-53C26D5D68C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05ABAB-3B79-43E1-9585-927781555FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -4036,10 +4036,10 @@
   </sheetPr>
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5532,10 +5532,10 @@
   </sheetPr>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="G122" sqref="G122"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110:G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
+++ b/EXCEL/class notes/day7 vlookup/VlookupHlookup (Home work).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\class notes\day7 vlookup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F05ABAB-3B79-43E1-9585-927781555FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874B0BF-7576-44C5-92BB-627B893390D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLOOKUP" sheetId="1" r:id="rId1"/>
@@ -4037,9 +4037,9 @@
   <dimension ref="A1:Q131"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="N74" sqref="N74"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112:I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5532,10 +5532,10 @@
   </sheetPr>
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C110" sqref="C110:G127"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7060,8 +7060,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7249,11 +7249,11 @@
         <v>145</v>
       </c>
       <c r="B5" s="96" t="str">
-        <f t="shared" ref="B5:K5" si="1">HLOOKUP(B$3,$M$2:$P$3,2,1)</f>
+        <f>HLOOKUP(B$3,$M$2:$P$3,2,1)</f>
         <v>Fail</v>
       </c>
       <c r="C5" s="96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B5:K5" si="1">HLOOKUP(C$3,$M$2:$P$3,2,1)</f>
         <v>Pass</v>
       </c>
       <c r="D5" s="96" t="str">
@@ -7438,38 +7438,38 @@
         <v>1009</v>
       </c>
       <c r="I11" s="90" t="str">
-        <f t="shared" ref="I11:I19" si="7">HLOOKUP($H11,$A$1:$K$5,2,0)</f>
+        <f>HLOOKUP($H11,$A$1:$K$5,2,0)</f>
         <v>A9</v>
       </c>
       <c r="J11" s="90">
-        <f t="shared" ref="J11:J19" si="8">HLOOKUP($H11,$A$1:$K$5,3,0)</f>
+        <f t="shared" ref="J11:J19" si="7">HLOOKUP($H11,$A$1:$K$5,3,0)</f>
         <v>100</v>
       </c>
       <c r="K11" s="90" t="str">
-        <f t="shared" ref="K11:K19" si="9">HLOOKUP($H11,$A$1:$K$5,4,0)</f>
+        <f t="shared" ref="K11:K19" si="8">HLOOKUP($H11,$A$1:$K$5,4,0)</f>
         <v>Pass</v>
       </c>
       <c r="L11" s="90" t="str">
-        <f t="shared" ref="L11:L19" si="10">HLOOKUP($H11,$A$1:$K$5,5,0)</f>
+        <f t="shared" ref="L11:L19" si="9">HLOOKUP($H11,$A$1:$K$5,5,0)</f>
         <v>Disc</v>
       </c>
       <c r="N11" s="161">
         <v>1009</v>
       </c>
       <c r="O11" s="130" t="str">
-        <f t="shared" ref="O11:R19" si="11">HLOOKUP($N11,$A$1:$K$5,MATCH(O$9,$A$1:$A$5,0),0)</f>
+        <f t="shared" ref="O11:R19" si="10">HLOOKUP($N11,$A$1:$K$5,MATCH(O$9,$A$1:$A$5,0),0)</f>
         <v>Disc</v>
       </c>
       <c r="P11" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A9</v>
       </c>
       <c r="Q11" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="R11" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
     </row>
@@ -7493,38 +7493,38 @@
         <v>1004</v>
       </c>
       <c r="I12" s="90" t="str">
+        <f>HLOOKUP($H12,$A$1:$K$5,2,0)</f>
+        <v>A4</v>
+      </c>
+      <c r="J12" s="90">
         <f t="shared" si="7"/>
-        <v>A4</v>
-      </c>
-      <c r="J12" s="90">
+        <v>89</v>
+      </c>
+      <c r="K12" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="K12" s="90" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="L12" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>Pass</v>
-      </c>
-      <c r="L12" s="90" t="str">
+        <v>Disc</v>
+      </c>
+      <c r="N12" s="161">
+        <v>1004</v>
+      </c>
+      <c r="O12" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Disc</v>
       </c>
-      <c r="N12" s="161">
-        <v>1004</v>
-      </c>
-      <c r="O12" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Disc</v>
-      </c>
       <c r="P12" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A4</v>
       </c>
       <c r="Q12" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="R12" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
     </row>
@@ -7548,38 +7548,38 @@
         <v>1001</v>
       </c>
       <c r="I13" s="90" t="str">
+        <f t="shared" ref="I11:I19" si="11">HLOOKUP($H13,$A$1:$K$5,2,0)</f>
+        <v>A1</v>
+      </c>
+      <c r="J13" s="90">
         <f t="shared" si="7"/>
-        <v>A1</v>
-      </c>
-      <c r="J13" s="90">
+        <v>28</v>
+      </c>
+      <c r="K13" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="K13" s="90" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="L13" s="90" t="str">
         <f t="shared" si="9"/>
         <v>Fail</v>
       </c>
-      <c r="L13" s="90" t="str">
+      <c r="N13" s="161">
+        <v>1001</v>
+      </c>
+      <c r="O13" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
-      <c r="N13" s="161">
-        <v>1001</v>
-      </c>
-      <c r="O13" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Fail</v>
-      </c>
       <c r="P13" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A1</v>
       </c>
       <c r="Q13" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="R13" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
     </row>
@@ -7603,38 +7603,38 @@
         <v>1006</v>
       </c>
       <c r="I14" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A6</v>
+      </c>
+      <c r="J14" s="90">
         <f t="shared" si="7"/>
-        <v>A6</v>
-      </c>
-      <c r="J14" s="90">
+        <v>8</v>
+      </c>
+      <c r="K14" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K14" s="90" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="L14" s="90" t="str">
         <f t="shared" si="9"/>
         <v>Fail</v>
       </c>
-      <c r="L14" s="90" t="str">
+      <c r="N14" s="161">
+        <v>1006</v>
+      </c>
+      <c r="O14" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
-      <c r="N14" s="161">
-        <v>1006</v>
-      </c>
-      <c r="O14" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Fail</v>
-      </c>
       <c r="P14" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A6</v>
       </c>
       <c r="Q14" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="R14" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
     </row>
@@ -7658,38 +7658,38 @@
         <v>1010</v>
       </c>
       <c r="I15" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A10</v>
+      </c>
+      <c r="J15" s="90">
         <f t="shared" si="7"/>
-        <v>A10</v>
-      </c>
-      <c r="J15" s="90">
+        <v>99</v>
+      </c>
+      <c r="K15" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="K15" s="90" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="L15" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>Pass</v>
-      </c>
-      <c r="L15" s="90" t="str">
+        <v>Disc</v>
+      </c>
+      <c r="N15" s="161">
+        <v>1010</v>
+      </c>
+      <c r="O15" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Disc</v>
       </c>
-      <c r="N15" s="161">
-        <v>1010</v>
-      </c>
-      <c r="O15" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Disc</v>
-      </c>
       <c r="P15" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A10</v>
       </c>
       <c r="Q15" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="R15" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
     </row>
@@ -7713,38 +7713,38 @@
         <v>1005</v>
       </c>
       <c r="I16" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A5</v>
+      </c>
+      <c r="J16" s="90">
         <f t="shared" si="7"/>
-        <v>A5</v>
-      </c>
-      <c r="J16" s="90">
+        <v>6</v>
+      </c>
+      <c r="K16" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="K16" s="90" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="L16" s="90" t="str">
         <f t="shared" si="9"/>
         <v>Fail</v>
       </c>
-      <c r="L16" s="90" t="str">
+      <c r="N16" s="161">
+        <v>1005</v>
+      </c>
+      <c r="O16" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
-      <c r="N16" s="161">
-        <v>1005</v>
-      </c>
-      <c r="O16" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Fail</v>
-      </c>
       <c r="P16" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A5</v>
       </c>
       <c r="Q16" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="R16" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
     </row>
@@ -7768,38 +7768,38 @@
         <v>1008</v>
       </c>
       <c r="I17" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A8</v>
+      </c>
+      <c r="J17" s="90">
         <f t="shared" si="7"/>
-        <v>A8</v>
-      </c>
-      <c r="J17" s="90">
+        <v>64</v>
+      </c>
+      <c r="K17" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="K17" s="90" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="L17" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>Pass</v>
-      </c>
-      <c r="L17" s="90" t="str">
+        <v>First class</v>
+      </c>
+      <c r="N17" s="161">
+        <v>1008</v>
+      </c>
+      <c r="O17" s="130" t="str">
         <f t="shared" si="10"/>
         <v>First class</v>
       </c>
-      <c r="N17" s="161">
-        <v>1008</v>
-      </c>
-      <c r="O17" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>First class</v>
-      </c>
       <c r="P17" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A8</v>
       </c>
       <c r="Q17" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="R17" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
     </row>
@@ -7823,38 +7823,38 @@
         <v>1002</v>
       </c>
       <c r="I18" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A2</v>
+      </c>
+      <c r="J18" s="90">
         <f t="shared" si="7"/>
-        <v>A2</v>
-      </c>
-      <c r="J18" s="90">
+        <v>59</v>
+      </c>
+      <c r="K18" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="K18" s="90" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="L18" s="90" t="str">
         <f t="shared" si="9"/>
-        <v>Pass</v>
-      </c>
-      <c r="L18" s="90" t="str">
-        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
       <c r="N18" s="161">
         <v>1002</v>
       </c>
       <c r="O18" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
       <c r="P18" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A2</v>
       </c>
       <c r="Q18" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="R18" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Pass</v>
       </c>
     </row>
@@ -7878,38 +7878,38 @@
         <v>1007</v>
       </c>
       <c r="I19" s="90" t="str">
+        <f t="shared" si="11"/>
+        <v>A7</v>
+      </c>
+      <c r="J19" s="90">
         <f t="shared" si="7"/>
-        <v>A7</v>
-      </c>
-      <c r="J19" s="90">
+        <v>33</v>
+      </c>
+      <c r="K19" s="90" t="str">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="K19" s="90" t="str">
+        <v>Fail</v>
+      </c>
+      <c r="L19" s="90" t="str">
         <f t="shared" si="9"/>
         <v>Fail</v>
       </c>
-      <c r="L19" s="90" t="str">
+      <c r="N19" s="161">
+        <v>1007</v>
+      </c>
+      <c r="O19" s="130" t="str">
         <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
-      <c r="N19" s="161">
-        <v>1007</v>
-      </c>
-      <c r="O19" s="130" t="str">
-        <f t="shared" si="11"/>
-        <v>Fail</v>
-      </c>
       <c r="P19" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>A7</v>
       </c>
       <c r="Q19" s="130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="R19" s="130" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>Fail</v>
       </c>
     </row>
